--- a/data/trans_orig/DUR_SUEÑO_LABORAL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_LABORAL-Estudios-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,69 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -126,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,65 +460,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Promedio de horas de sueño/laboral (tasa de respuesta: 98,62%)</t>
+          <t>Promedio de horas de sueño/laboral (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -589,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,12</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,21</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,01</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,13</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,05</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,16</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>7.057874751142</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>7.129286665543985</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>6.989534812555921</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>7.101567723735164</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>7.01427950987626</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>7.112246174956883</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>6,97; 7,25</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,01; 7,41</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>6,91; 7,11</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,92; 7,34</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>6,97; 7,13</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 7,32</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>6.887270422778263</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>6.934836415927732</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>6.873576528742237</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>6.902767255230705</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>6.923333299788275</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>6.966682302784482</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.204506583681114</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>7.327028418030549</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>7.092165664398664</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.296473824248279</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.115249867692289</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>7.272174050315103</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,16</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,12</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,05</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,07</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,11</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 7,23</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,03; 7,2</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6,99; 7,11</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>6,98; 7,15</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>7,05; 7,16</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>7,03; 7,15</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>7.15304128746672</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>7.115391202425403</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>7.038866966185616</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>7.061103065784422</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>7.096053769055056</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>7.088505472381195</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>7.079724906955153</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>7.033204791496917</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>6.973325338361894</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>6.976993318425472</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>7.045161427230026</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>7.028433643980023</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>7.230812968444567</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>7.199437532154161</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>7.105841789889876</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>7.154372712859535</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>7.153450096216185</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>7.151490855667134</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,98</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,17</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,98</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,09</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,98</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>6,88; 7,07</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,05; 7,27</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>6,89; 7,08</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>6,99; 7,18</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>6,92; 7,05</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>7,06; 7,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>6.945395150327678</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>7.157201595478402</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>6.964550062073816</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>7.061962916351462</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>6.954844608334943</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>7.105561499552589</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>6.841206182553291</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>7.046434640352333</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>6.8667069935403</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>6.966775956298552</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>6.880834283429477</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>7.024515069029173</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>7.038093404790129</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>7.266002779402735</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>7.058886259078081</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>7.162655221770162</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>7.025142823009793</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>7.171888199470969</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,11</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,14</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,03</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,09</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,07</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>7,04; 7,16</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 7,21</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6,98; 7,07</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,03; 7,15</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>7,03; 7,1</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7,07; 7,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>7.086183147051455</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>7.128469557874437</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>7.011544397483892</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>7.067127594959357</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>7.047463080893626</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>7.096360578863662</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>7.027816700206732</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>7.06924805109603</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>6.960810341692563</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>7.000552523645531</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>7.012049122324866</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>7.053648493607572</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>7.144349305286789</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>7.191106512318409</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>7.062170651908761</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>7.127055041288093</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>7.083573609216963</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>7.142303006379588</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -917,14 +864,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
